--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1565932.864820975</v>
+        <v>1615825.641471974</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>415581.2054242541</v>
+        <v>383662.6217384203</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,25 +706,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>216.6234524382191</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>9.923892307867391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>128.3346518828123</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -861,13 +861,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>22.0339917726842</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>60.28241438224702</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>80.83011447495538</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>171.2054233768403</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>191.612732137126</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>40.47627913313517</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>18.29749587628862</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>78.28243748783373</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>157.7236420036767</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
-        <v>241.305936483549</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>107.9467780863823</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>13.43191953481472</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>116.0169964619602</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>18.12022702288998</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>383.814828549588</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>58.42685044277513</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,22 +1691,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>120.3673242862879</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
@@ -1745,16 +1745,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>27.44320499632809</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.9764047481749</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>206.4571645562561</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
         <v>195.5929138346465</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>68.43220977537591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1928,19 +1928,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>37.4811351161577</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>50.13504822396229</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>158.2525819861381</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>106.9147497326711</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>405.7415719969023</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>43.50864318698267</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>26.50533691882911</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>68.1550392619075</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.8053437534854</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
@@ -2216,19 +2216,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>165.6221850809707</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>39.28760810382741</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>30.1574396106729</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>48.86604815012162</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2459,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0.4621095523141662</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>158.2525819861381</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.8808099557203</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>212.1290707785721</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.08086764563708</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>140.9445834237648</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>32.57639700375383</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>264.0251236100225</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>43.50864318698262</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2876,13 +2876,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>53.77462707977493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>113.4883178883723</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>39.1947906270704</v>
+        <v>98.68313739545462</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H32" t="n">
-        <v>238.6612116432392</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>380.3849069482931</v>
       </c>
     </row>
     <row r="33">
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>113.4883178883723</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>100.1207562234016</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>30.44996741998439</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>179.0654404381967</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>376.8808099557201</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
-        <v>17.95817021688012</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3353,19 +3353,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>81.12752273267785</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>89.80357064212222</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>158.2525819861381</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>80.00227267203782</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>66.51637352040449</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>48.25430622603242</v>
       </c>
       <c r="G39" t="n">
-        <v>114.1942888468236</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3678,7 +3678,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
-        <v>12.35168551462426</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>12.35168551462424</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>385.9941988845329</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>69.0167005930995</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>39.7860196869964</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>129.098690470701</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>12.83153396320683</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>85.44434557530775</v>
       </c>
       <c r="E44" t="n">
-        <v>76.20301993227055</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>141.2209508291585</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>29.38197200847277</v>
+        <v>33.64439241526548</v>
       </c>
       <c r="I46" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509.8046290289238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>509.8046290289238</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>509.8046290289238</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>509.8046290289238</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>509.8046290289238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.8046290289238</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>694.6722890434539</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="C3" t="n">
-        <v>694.6722890434539</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="D3" t="n">
-        <v>545.7378793822027</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E3" t="n">
-        <v>386.5004243767472</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F3" t="n">
-        <v>239.9658664036321</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>852.019301208126</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C4" t="n">
-        <v>852.019301208126</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D4" t="n">
-        <v>852.019301208126</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E4" t="n">
-        <v>852.019301208126</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F4" t="n">
-        <v>852.019301208126</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G4" t="n">
-        <v>852.019301208126</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H4" t="n">
-        <v>852.019301208126</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I4" t="n">
-        <v>852.019301208126</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>852.019301208126</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>961.308225475175</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>874.2758585542716</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>874.2758585542716</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>852.019301208126</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>852.019301208126</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>852.019301208126</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>852.019301208126</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W4" t="n">
-        <v>852.019301208126</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X4" t="n">
-        <v>852.019301208126</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y4" t="n">
-        <v>852.019301208126</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>114.6452713866835</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C5" t="n">
-        <v>114.6452713866835</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>114.6452713866835</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>114.6452713866835</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>107.69977063748</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>92.24246001613146</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>92.24246001613146</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>358.0940480307835</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>114.6452713866835</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="W5" t="n">
-        <v>114.6452713866835</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X5" t="n">
-        <v>114.6452713866835</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y5" t="n">
-        <v>114.6452713866835</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4652,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>588.9357897816847</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>353.783681549942</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>110.334904905842</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4761,16 +4761,16 @@
         <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4783,22 +4783,22 @@
         <v>559.1338160830064</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E8" t="n">
-        <v>559.1338160830064</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
-        <v>518.2486856454962</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5698337361135</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C9" t="n">
-        <v>166.5698337361135</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D9" t="n">
-        <v>166.5698337361135</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>509.380047140441</v>
       </c>
       <c r="V9" t="n">
-        <v>533.6469426057913</v>
+        <v>509.380047140441</v>
       </c>
       <c r="W9" t="n">
-        <v>533.6469426057913</v>
+        <v>509.380047140441</v>
       </c>
       <c r="X9" t="n">
-        <v>374.3301325010674</v>
+        <v>509.380047140441</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.5698337361135</v>
+        <v>301.6197483754871</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>834.8212426942234</v>
+        <v>551.3364470559993</v>
       </c>
       <c r="C11" t="n">
-        <v>465.8587257538117</v>
+        <v>551.3364470559993</v>
       </c>
       <c r="D11" t="n">
-        <v>465.8587257538117</v>
+        <v>551.3364470559993</v>
       </c>
       <c r="E11" t="n">
-        <v>465.8587257538117</v>
+        <v>551.3364470559993</v>
       </c>
       <c r="F11" t="n">
-        <v>465.8587257538117</v>
+        <v>551.3364470559993</v>
       </c>
       <c r="G11" t="n">
-        <v>465.8587257538117</v>
+        <v>141.4964753419566</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>141.4964753419566</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381202</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1088.658125761969</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U11" t="n">
-        <v>834.8212426942234</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V11" t="n">
-        <v>834.8212426942234</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W11" t="n">
-        <v>834.8212426942234</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X11" t="n">
-        <v>834.8212426942234</v>
+        <v>937.9362871201211</v>
       </c>
       <c r="Y11" t="n">
-        <v>834.8212426942234</v>
+        <v>937.9362871201211</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>740.9541542535677</v>
+        <v>730.4321178331462</v>
       </c>
       <c r="C12" t="n">
-        <v>566.5011249724407</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="D12" t="n">
-        <v>417.5667153111894</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="E12" t="n">
-        <v>258.3292603057339</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F12" t="n">
-        <v>111.7947023326189</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G12" t="n">
         <v>111.7947023326189</v>
@@ -5117,55 +5117,55 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>186.5657812216814</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>484.2975362033446</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6328557330464</v>
+        <v>855.0325800923007</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.333634589534</v>
+        <v>1230.558222299722</v>
       </c>
       <c r="O12" t="n">
-        <v>1331.087048673496</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286847</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1254.561044051269</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U12" t="n">
-        <v>1026.358376588747</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V12" t="n">
-        <v>1026.358376588747</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W12" t="n">
-        <v>1026.358376588747</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="X12" t="n">
-        <v>909.1694912736357</v>
+        <v>951.7600120878119</v>
       </c>
       <c r="Y12" t="n">
-        <v>909.1694912736357</v>
+        <v>743.999713322858</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="C13" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="D13" t="n">
-        <v>342.9433419838693</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="E13" t="n">
-        <v>342.9433419838693</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="F13" t="n">
-        <v>342.9433419838693</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>342.9433419838693</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5226,25 +5226,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U13" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="V13" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="W13" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>787.2100952984081</v>
+        <v>420.151071769437</v>
       </c>
       <c r="C14" t="n">
-        <v>418.2475783579964</v>
+        <v>420.151071769437</v>
       </c>
       <c r="D14" t="n">
-        <v>418.2475783579964</v>
+        <v>420.151071769437</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975219</v>
+        <v>420.151071769437</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975219</v>
+        <v>420.151071769437</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521485</v>
       </c>
       <c r="K14" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1563.949267338342</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1563.949267338342</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1563.949267338342</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U14" t="n">
-        <v>1563.949267338342</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V14" t="n">
-        <v>1563.949267338342</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="W14" t="n">
-        <v>1563.949267338342</v>
+        <v>793.6168300305169</v>
       </c>
       <c r="X14" t="n">
-        <v>1563.949267338342</v>
+        <v>420.151071769437</v>
       </c>
       <c r="Y14" t="n">
-        <v>1173.80993536253</v>
+        <v>420.151071769437</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>830.4226304814787</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C15" t="n">
-        <v>655.9696012003517</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D15" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K15" t="n">
-        <v>186.5657812216814</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L15" t="n">
-        <v>416.5288870900306</v>
+        <v>438.179716045193</v>
       </c>
       <c r="M15" t="n">
-        <v>736.8642066197324</v>
+        <v>837.5978526494559</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.333634589534</v>
+        <v>1182.118508287074</v>
       </c>
       <c r="O15" t="n">
-        <v>1331.087048673496</v>
+        <v>1440.322810374258</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
@@ -5384,25 +5384,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1501.383132142874</v>
       </c>
       <c r="T15" t="n">
-        <v>1254.561044051268</v>
+        <v>1300.480123248367</v>
       </c>
       <c r="U15" t="n">
-        <v>1026.358376588747</v>
+        <v>1072.277455785845</v>
       </c>
       <c r="V15" t="n">
-        <v>998.6379675015467</v>
+        <v>837.1253475541027</v>
       </c>
       <c r="W15" t="n">
-        <v>998.6379675015467</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="X15" t="n">
-        <v>998.6379675015467</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.6379675015467</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
       </c>
       <c r="M16" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N16" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O16" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S16" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T16" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="U16" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="V16" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="W16" t="n">
-        <v>71.82943156598947</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="X16" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>840.4979177433162</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C17" t="n">
-        <v>840.4979177433162</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D17" t="n">
-        <v>840.4979177433162</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E17" t="n">
-        <v>840.4979177433162</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F17" t="n">
-        <v>840.4979177433162</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G17" t="n">
-        <v>430.6579460292734</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5539,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U17" t="n">
-        <v>1171.560805086887</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V17" t="n">
-        <v>840.4979177433162</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="W17" t="n">
-        <v>840.4979177433162</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="X17" t="n">
-        <v>840.4979177433162</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="Y17" t="n">
-        <v>840.4979177433162</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>878.5854082662463</v>
+        <v>424.6601048545757</v>
       </c>
       <c r="C18" t="n">
-        <v>704.1323789851193</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="D18" t="n">
-        <v>666.272646544556</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="E18" t="n">
-        <v>507.0351915391004</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="F18" t="n">
-        <v>360.5006335659854</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H18" t="n">
         <v>111.7947023326189</v>
@@ -5597,19 +5597,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809357</v>
+        <v>186.5657812216814</v>
       </c>
       <c r="L18" t="n">
-        <v>236.9655055809357</v>
+        <v>416.5288870900306</v>
       </c>
       <c r="M18" t="n">
-        <v>557.3008251106376</v>
+        <v>736.8642066197324</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082806</v>
+        <v>1081.384862257351</v>
       </c>
       <c r="O18" t="n">
-        <v>1271.486777082839</v>
+        <v>1330.138276341313</v>
       </c>
       <c r="P18" t="n">
         <v>1513.730526286846</v>
@@ -5618,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T18" t="n">
-        <v>1254.561044051268</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U18" t="n">
-        <v>1254.561044051268</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V18" t="n">
-        <v>1254.561044051268</v>
+        <v>1262.724597573332</v>
       </c>
       <c r="W18" t="n">
-        <v>1254.561044051268</v>
+        <v>1008.48724084513</v>
       </c>
       <c r="X18" t="n">
-        <v>1254.561044051268</v>
+        <v>800.6357406395975</v>
       </c>
       <c r="Y18" t="n">
-        <v>1046.800745286314</v>
+        <v>592.8754418746437</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="C19" t="n">
         <v>32.45932575975218</v>
@@ -5706,19 +5706,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>253.2519049032823</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>253.2519049032823</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>253.2519049032823</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X19" t="n">
-        <v>253.2519049032823</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1596.193220392832</v>
+        <v>896.0873936191333</v>
       </c>
       <c r="C20" t="n">
-        <v>1596.193220392832</v>
+        <v>896.0873936191333</v>
       </c>
       <c r="D20" t="n">
-        <v>1237.927521786082</v>
+        <v>896.0873936191333</v>
       </c>
       <c r="E20" t="n">
-        <v>852.1392691878377</v>
+        <v>896.0873936191333</v>
       </c>
       <c r="F20" t="n">
-        <v>442.299297473795</v>
+        <v>486.2474219050906</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975219</v>
+        <v>76.40745019104781</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975219</v>
+        <v>76.40745019104781</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K20" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U20" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="W20" t="n">
-        <v>1596.193220392832</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="X20" t="n">
-        <v>1596.193220392832</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="Y20" t="n">
-        <v>1596.193220392832</v>
+        <v>896.0873936191333</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>603.7971368490391</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C21" t="n">
-        <v>429.3441075679121</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D21" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E21" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975219</v>
+        <v>53.65418887261166</v>
       </c>
       <c r="K21" t="n">
-        <v>208.2166101768439</v>
+        <v>53.65418887261166</v>
       </c>
       <c r="L21" t="n">
-        <v>505.9483651585071</v>
+        <v>283.6172947409608</v>
       </c>
       <c r="M21" t="n">
-        <v>905.3665017627701</v>
+        <v>603.9526142706626</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.050658039703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.966287987609</v>
+        <v>1582.758870054796</v>
       </c>
       <c r="S21" t="n">
-        <v>1455.464052945775</v>
+        <v>1415.256635012961</v>
       </c>
       <c r="T21" t="n">
-        <v>1254.561044051268</v>
+        <v>1214.353626118455</v>
       </c>
       <c r="U21" t="n">
-        <v>1254.561044051268</v>
+        <v>986.150958655933</v>
       </c>
       <c r="V21" t="n">
-        <v>1019.408935819526</v>
+        <v>986.150958655933</v>
       </c>
       <c r="W21" t="n">
-        <v>1019.408935819526</v>
+        <v>731.9136019277314</v>
       </c>
       <c r="X21" t="n">
-        <v>811.557435613993</v>
+        <v>524.0621017221986</v>
       </c>
       <c r="Y21" t="n">
-        <v>603.7971368490391</v>
+        <v>524.0621017221986</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975219</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975219</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975219</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975219</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975219</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975219</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5940,22 +5940,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="W22" t="n">
-        <v>71.82943156598952</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="X22" t="n">
-        <v>71.82943156598952</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975219</v>
+        <v>193.9514651575251</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>442.299297473795</v>
+        <v>818.7921498167727</v>
       </c>
       <c r="C23" t="n">
-        <v>442.299297473795</v>
+        <v>818.7921498167727</v>
       </c>
       <c r="D23" t="n">
-        <v>442.299297473795</v>
+        <v>818.7921498167727</v>
       </c>
       <c r="E23" t="n">
-        <v>442.299297473795</v>
+        <v>818.7921498167727</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975219</v>
+        <v>818.7921498167727</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975219</v>
+        <v>408.95217810273</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>72.14377838988088</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6016,25 +6016,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T23" t="n">
-        <v>1592.504227774808</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U23" t="n">
-        <v>1592.504227774808</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="V23" t="n">
-        <v>1592.504227774808</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="W23" t="n">
-        <v>1592.504227774808</v>
+        <v>818.7921498167727</v>
       </c>
       <c r="X23" t="n">
-        <v>1219.038469513729</v>
+        <v>818.7921498167727</v>
       </c>
       <c r="Y23" t="n">
-        <v>828.8991375379168</v>
+        <v>818.7921498167727</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>489.7623565946566</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C24" t="n">
-        <v>489.7623565946566</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D24" t="n">
-        <v>489.7623565946566</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E24" t="n">
-        <v>330.5249015892011</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>330.5249015892011</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
-        <v>192.1125283483714</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
-        <v>81.81897035583464</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>172.6527292199794</v>
+        <v>186.5657812216814</v>
       </c>
       <c r="L24" t="n">
-        <v>470.3844842016426</v>
+        <v>416.5288870900306</v>
       </c>
       <c r="M24" t="n">
-        <v>869.8026208059056</v>
+        <v>777.6541821393488</v>
       </c>
       <c r="N24" t="n">
-        <v>1271.486777082839</v>
+        <v>1122.174837776967</v>
       </c>
       <c r="O24" t="n">
-        <v>1271.486777082839</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286846</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6095,25 +6095,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U24" t="n">
-        <v>1394.763620525088</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V24" t="n">
-        <v>1159.611512293345</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W24" t="n">
-        <v>905.3741555651434</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X24" t="n">
-        <v>697.5226553596106</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y24" t="n">
-        <v>489.7623565946566</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C25" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D25" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6174,25 +6174,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="U25" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="W25" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="X25" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>852.1392691878377</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="C26" t="n">
-        <v>852.1392691878377</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="D26" t="n">
-        <v>852.1392691878377</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="E26" t="n">
-        <v>852.1392691878377</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="F26" t="n">
-        <v>442.299297473795</v>
+        <v>436.3871442336331</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>661.618777680701</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="C27" t="n">
-        <v>487.165748399574</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D27" t="n">
-        <v>338.2313387383227</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E27" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F27" t="n">
         <v>32.45932575975219</v>
@@ -6305,19 +6305,19 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K27" t="n">
-        <v>236.9655055809357</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L27" t="n">
-        <v>534.6972605625989</v>
+        <v>388.0303324577585</v>
       </c>
       <c r="M27" t="n">
-        <v>934.1153971668618</v>
+        <v>787.4484690620214</v>
       </c>
       <c r="N27" t="n">
-        <v>1335.799553443795</v>
+        <v>1131.969124699639</v>
       </c>
       <c r="O27" t="n">
         <v>1380.722538783602</v>
@@ -6329,28 +6329,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1608.743189355653</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1608.743189355653</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.966287987609</v>
+        <v>1608.743189355653</v>
       </c>
       <c r="U27" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.540521893131</v>
       </c>
       <c r="V27" t="n">
-        <v>1387.814179755867</v>
+        <v>1145.388413661388</v>
       </c>
       <c r="W27" t="n">
-        <v>1245.445913671256</v>
+        <v>891.1510569331867</v>
       </c>
       <c r="X27" t="n">
-        <v>1037.594413465723</v>
+        <v>683.2995567276539</v>
       </c>
       <c r="Y27" t="n">
-        <v>829.8341147007691</v>
+        <v>683.2995567276539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975219</v>
+        <v>328.3411500840068</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975219</v>
+        <v>328.3411500840068</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975219</v>
+        <v>328.3411500840068</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975219</v>
+        <v>328.3411500840068</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I28" t="n">
         <v>32.45932575975219</v>
@@ -6414,22 +6414,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>328.3411500840068</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>328.3411500840068</v>
       </c>
       <c r="V28" t="n">
-        <v>321.8764957967128</v>
+        <v>328.3411500840068</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975219</v>
+        <v>328.3411500840068</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975219</v>
+        <v>328.3411500840068</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975219</v>
+        <v>328.3411500840068</v>
       </c>
     </row>
     <row r="29">
@@ -6490,25 +6490,25 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S29" t="n">
-        <v>1465.022520782882</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T29" t="n">
-        <v>1242.278601163649</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U29" t="n">
-        <v>1242.278601163649</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V29" t="n">
-        <v>1242.278601163649</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W29" t="n">
-        <v>1242.278601163649</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X29" t="n">
-        <v>1242.278601163649</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y29" t="n">
-        <v>852.1392691878377</v>
+        <v>1118.831313238366</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>206.9123550408792</v>
+        <v>556.6991278063313</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975219</v>
+        <v>382.2460985252043</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975219</v>
+        <v>233.311688863953</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975219</v>
+        <v>233.311688863953</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975219</v>
+        <v>86.77713089083798</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975219</v>
+        <v>86.77713089083798</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975219</v>
+        <v>86.77713089083798</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>208.2166101768439</v>
+        <v>227.3557567412981</v>
       </c>
       <c r="L30" t="n">
-        <v>505.948365158507</v>
+        <v>457.3188626096472</v>
       </c>
       <c r="M30" t="n">
-        <v>905.36650176277</v>
+        <v>777.654182139349</v>
       </c>
       <c r="N30" t="n">
-        <v>1299.952780813051</v>
+        <v>1122.174837776967</v>
       </c>
       <c r="O30" t="n">
-        <v>1622.966287987609</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
@@ -6572,22 +6572,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1508.3316234539</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U30" t="n">
-        <v>1280.128955991378</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V30" t="n">
-        <v>1044.976847759636</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="W30" t="n">
-        <v>790.739491031434</v>
+        <v>1140.526263796886</v>
       </c>
       <c r="X30" t="n">
-        <v>582.8879908259012</v>
+        <v>932.6747635913532</v>
       </c>
       <c r="Y30" t="n">
-        <v>375.1276920609473</v>
+        <v>724.9144648263994</v>
       </c>
     </row>
     <row r="31">
@@ -6651,16 +6651,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U31" t="n">
-        <v>72.05002336285361</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V31" t="n">
-        <v>72.05002336285361</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W31" t="n">
-        <v>72.05002336285361</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X31" t="n">
         <v>32.45932575975219</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1069.159481024806</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C32" t="n">
-        <v>1069.159481024806</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D32" t="n">
-        <v>1069.159481024806</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E32" t="n">
-        <v>683.3712284265619</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F32" t="n">
-        <v>683.3712284265619</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G32" t="n">
-        <v>273.5312567125191</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
         <v>70.13987180521505</v>
@@ -6706,10 +6706,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6730,22 +6730,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V32" t="n">
-        <v>1069.159481024806</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W32" t="n">
-        <v>1069.159481024806</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X32" t="n">
-        <v>1069.159481024806</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y32" t="n">
-        <v>1069.159481024806</v>
+        <v>1238.739109251959</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>206.9123550408792</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975219</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975219</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>157.8168858175896</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>455.5486407992528</v>
+        <v>438.179716045193</v>
       </c>
       <c r="M33" t="n">
-        <v>847.0487406526782</v>
+        <v>837.5978526494559</v>
       </c>
       <c r="N33" t="n">
         <v>1191.569396290296</v>
       </c>
       <c r="O33" t="n">
-        <v>1440.322810374259</v>
+        <v>1440.322810374258</v>
       </c>
       <c r="P33" t="n">
         <v>1622.966287987609</v>
@@ -6803,28 +6803,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1508.3316234539</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T33" t="n">
-        <v>1508.3316234539</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U33" t="n">
-        <v>1280.128955991378</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V33" t="n">
-        <v>1044.976847759636</v>
+        <v>1078.213952194076</v>
       </c>
       <c r="W33" t="n">
-        <v>790.739491031434</v>
+        <v>823.9765954658749</v>
       </c>
       <c r="X33" t="n">
-        <v>582.8879908259012</v>
+        <v>722.8445184725399</v>
       </c>
       <c r="Y33" t="n">
-        <v>375.1276920609473</v>
+        <v>515.0842197075859</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="C34" t="n">
-        <v>330.489058754481</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="D34" t="n">
         <v>180.3724193421453</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
         <v>107.0302722280248</v>
@@ -6891,19 +6891,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="V34" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="W34" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="X34" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="Y34" t="n">
-        <v>361.2466016029501</v>
+        <v>180.3724193421453</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>846.2271159476757</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C35" t="n">
-        <v>846.2271159476757</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D35" t="n">
-        <v>846.2271159476757</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E35" t="n">
-        <v>460.4388633494314</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F35" t="n">
-        <v>50.59889163538867</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G35" t="n">
         <v>32.45932575975218</v>
@@ -6937,16 +6937,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K35" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>206.9123550408792</v>
+        <v>694.1911178525678</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975218</v>
+        <v>519.7380885714408</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975218</v>
+        <v>519.7380885714408</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>157.8168858175896</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>455.5486407992528</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>847.048740652678</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.569396290296</v>
+        <v>1278.63605280448</v>
       </c>
       <c r="O36" t="n">
-        <v>1440.322810374258</v>
+        <v>1278.63605280448</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1520.879802008487</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7043,25 +7043,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1541.019295328339</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T36" t="n">
-        <v>1340.116286433832</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U36" t="n">
-        <v>1111.91361897131</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V36" t="n">
-        <v>876.7615107395675</v>
+        <v>1532.255610571324</v>
       </c>
       <c r="W36" t="n">
-        <v>622.5241540113659</v>
+        <v>1278.018253843122</v>
       </c>
       <c r="X36" t="n">
-        <v>414.6726538058331</v>
+        <v>1070.16675363759</v>
       </c>
       <c r="Y36" t="n">
-        <v>206.9123550408792</v>
+        <v>862.4064548726358</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="G37" t="n">
         <v>32.45932575975218</v>
@@ -7131,16 +7131,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>260.4488766577695</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>260.4488766577695</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>759.6875413069145</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C38" t="n">
-        <v>390.7250243665027</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F38" t="n">
         <v>32.45932575975218</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S38" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T38" t="n">
-        <v>1344.587311718231</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U38" t="n">
-        <v>1090.750428650485</v>
+        <v>1219.038469513728</v>
       </c>
       <c r="V38" t="n">
-        <v>759.6875413069145</v>
+        <v>1219.038469513728</v>
       </c>
       <c r="W38" t="n">
-        <v>759.6875413069145</v>
+        <v>1219.038469513728</v>
       </c>
       <c r="X38" t="n">
-        <v>759.6875413069145</v>
+        <v>1219.038469513728</v>
       </c>
       <c r="Y38" t="n">
-        <v>759.6875413069145</v>
+        <v>828.8991375379167</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>322.2601215528222</v>
+        <v>702.2383164090545</v>
       </c>
       <c r="C39" t="n">
-        <v>147.8070922716952</v>
+        <v>527.7852871279275</v>
       </c>
       <c r="D39" t="n">
-        <v>147.8070922716952</v>
+        <v>378.8508774666763</v>
       </c>
       <c r="E39" t="n">
-        <v>147.8070922716952</v>
+        <v>219.6134224612208</v>
       </c>
       <c r="F39" t="n">
-        <v>147.8070922716952</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G39" t="n">
         <v>32.45932575975218</v>
@@ -7256,49 +7256,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>157.8168858175896</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L39" t="n">
-        <v>392.8530564417237</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M39" t="n">
-        <v>713.1883759714254</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T39" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U39" t="n">
-        <v>1227.261385483253</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V39" t="n">
-        <v>992.1092772515105</v>
+        <v>1078.213952194076</v>
       </c>
       <c r="W39" t="n">
-        <v>737.871920523309</v>
+        <v>1078.213952194076</v>
       </c>
       <c r="X39" t="n">
-        <v>530.0204203177761</v>
+        <v>1078.213952194076</v>
       </c>
       <c r="Y39" t="n">
-        <v>322.2601215528222</v>
+        <v>870.4536534291226</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="C40" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="D40" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="E40" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="F40" t="n">
-        <v>214.3566541050397</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G40" t="n">
-        <v>44.93577577452416</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H40" t="n">
         <v>32.45932575975218</v>
@@ -7374,10 +7374,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="X40" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="Y40" t="n">
-        <v>361.2466016029501</v>
+        <v>348.7701515881781</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>776.5132769647469</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="C41" t="n">
-        <v>776.5132769647469</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="D41" t="n">
-        <v>418.2475783579964</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="E41" t="n">
-        <v>32.45932575975218</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975218</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="G41" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7438,25 +7438,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.966287987609</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="W41" t="n">
-        <v>1622.966287987609</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="X41" t="n">
-        <v>1553.25244900468</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="Y41" t="n">
-        <v>1163.113117028869</v>
+        <v>948.8168854676546</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>594.4195962804527</v>
+        <v>72.64722443348592</v>
       </c>
       <c r="C42" t="n">
-        <v>419.9665669993257</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D42" t="n">
-        <v>271.0321573380744</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
@@ -7499,43 +7499,43 @@
         <v>358.9399761455072</v>
       </c>
       <c r="M42" t="n">
-        <v>679.275295675209</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N42" t="n">
-        <v>1023.795951312827</v>
+        <v>1102.878768387388</v>
       </c>
       <c r="O42" t="n">
-        <v>1272.549365396789</v>
+        <v>1425.892275561946</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1422.063279093102</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U42" t="n">
-        <v>1291.66056144593</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V42" t="n">
-        <v>1056.508453214187</v>
+        <v>910.7117171522423</v>
       </c>
       <c r="W42" t="n">
-        <v>802.2710964859855</v>
+        <v>656.4743604240407</v>
       </c>
       <c r="X42" t="n">
-        <v>594.4195962804527</v>
+        <v>448.6228602185079</v>
       </c>
       <c r="Y42" t="n">
-        <v>594.4195962804527</v>
+        <v>240.862561453554</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>348.2854561855694</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C43" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
         <v>32.45932575975218</v>
@@ -7596,25 +7596,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V43" t="n">
-        <v>348.2854561855694</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W43" t="n">
-        <v>348.2854561855694</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X43" t="n">
-        <v>348.2854561855694</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y43" t="n">
-        <v>348.2854561855694</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>478.3945901064978</v>
+        <v>487.729262473202</v>
       </c>
       <c r="C44" t="n">
-        <v>109.4320731660861</v>
+        <v>118.7667455327903</v>
       </c>
       <c r="D44" t="n">
-        <v>109.4320731660861</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E44" t="n">
         <v>32.45932575975218</v>
@@ -7672,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1508.970645214177</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T44" t="n">
-        <v>1508.970645214177</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U44" t="n">
-        <v>1255.133762146431</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="V44" t="n">
-        <v>1255.133762146431</v>
+        <v>840.4979177433162</v>
       </c>
       <c r="W44" t="n">
-        <v>1255.133762146431</v>
+        <v>487.729262473202</v>
       </c>
       <c r="X44" t="n">
-        <v>1255.133762146431</v>
+        <v>487.729262473202</v>
       </c>
       <c r="Y44" t="n">
-        <v>864.9944301706196</v>
+        <v>487.729262473202</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L45" t="n">
-        <v>438.179716045193</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M45" t="n">
-        <v>787.4484690620212</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N45" t="n">
-        <v>1131.969124699639</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O45" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7754,10 +7754,10 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T45" t="n">
-        <v>1254.561044051268</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U45" t="n">
         <v>1111.91361897131</v>
@@ -7788,19 +7788,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="D46" t="n">
-        <v>211.1299621906143</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E46" t="n">
-        <v>211.1299621906143</v>
+        <v>213.333508020557</v>
       </c>
       <c r="F46" t="n">
-        <v>211.1299621906143</v>
+        <v>66.44356052264661</v>
       </c>
       <c r="G46" t="n">
-        <v>211.1299621906143</v>
+        <v>66.44356052264661</v>
       </c>
       <c r="H46" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I46" t="n">
         <v>32.45932575975218</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8780,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>411.8475493121083</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>217.0122855998971</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>199.5028366479762</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9731,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>67.58604940343854</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>187.9729973129361</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>254.6267547973815</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>104.7567089243584</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
-        <v>92.13437923217163</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>79.81269142418758</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>153.1012641150526</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>109.1906224126114</v>
@@ -23387,25 +23387,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>89.7559887415173</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>130.4952459953224</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>39.33204381001866</v>
       </c>
       <c r="G13" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>30.89867558094596</v>
       </c>
       <c r="H14" t="n">
         <v>333.4403157157206</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.42883590292232</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>45.45988840512781</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.3573821530972</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.8555754337624</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,7 +23703,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>119.6206511761247</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G17" t="n">
         <v>8.97193213363164</v>
       </c>
       <c r="H17" t="n">
-        <v>126.9831511594645</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>259.320048694759</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23816,19 +23816,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>109.9639304484811</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>182.665538925463</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>21.57939819579923</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23946,7 +23946,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>179.3898627250244</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.1344737448091</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
-        <v>8.971932133631583</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>144.2508263235872</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2985142370684</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>322.7356317985839</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>79.29002630273125</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>40.77824074479011</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,19 +24104,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24144,13 +24144,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H22" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
@@ -24180,7 +24180,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>61.19408060834058</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>179.6082486039198</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>148.4718614067425</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>190.3590408123669</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>29.67597465701642</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.2328736086054</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>9.474087561072309</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
@@ -24414,7 +24414,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
-        <v>219.4103988718534</v>
+        <v>73.74297596902477</v>
       </c>
       <c r="T25" t="n">
         <v>226.8162656893113</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.853031707760294</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24457,13 +24457,13 @@
         <v>1.1344737448091</v>
       </c>
       <c r="G26" t="n">
-        <v>8.971932133631583</v>
+        <v>202.5844333519618</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24533,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0282495084215</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>66.50271685263843</v>
       </c>
       <c r="S27" t="n">
         <v>165.8272126914158</v>
@@ -24578,19 +24578,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>110.7503997371548</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.7266695472104</v>
@@ -24621,7 +24621,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I28" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>74.67247646141476</v>
@@ -24654,16 +24654,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>194.2398686855574</v>
       </c>
       <c r="U28" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
-        <v>213.1612385756531</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>118.7087180534581</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>152.0842706476639</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24764,13 +24764,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
@@ -24779,7 +24779,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>24.76739572736311</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,13 +24812,13 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>85.40566091718938</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>186.5148647619667</v>
+        <v>127.0265179935825</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G32" t="n">
-        <v>8.971932133631583</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H32" t="n">
-        <v>94.7791040724814</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24970,13 +24970,13 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>5.853031707760465</v>
       </c>
     </row>
     <row r="33">
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>52.33889480304347</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>105.6522289800759</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>136.7968536786434</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>107.2391720194988</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>5.853031707760522</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>1.134473744809156</v>
       </c>
       <c r="G35" t="n">
-        <v>396.7553339136538</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25241,19 +25241,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,16 +25283,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>84.69968995873791</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>142.997016507303</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>9.474087561072338</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25371,13 +25371,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
-        <v>152.3478956280993</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>140.514207751002</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>184.7821407166639</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>96.81490616735147</v>
       </c>
       <c r="G39" t="n">
-        <v>22.83396066159786</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.1906224126114</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
@@ -25532,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.525532489171</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
         <v>147.5019580580808</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>213.3579698744129</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>28.719305246001</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>300.7144000853696</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>132.9224793013194</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25727,7 +25727,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>96.82195031719561</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.7266695472104</v>
@@ -25836,7 +25836,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>180.4339941236785</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
@@ -25845,10 +25845,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
-        <v>239.3061093606212</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>269.2386960453752</v>
       </c>
       <c r="E44" t="n">
-        <v>305.7273501399912</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25994,13 +25994,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>84.69968995873808</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>130.4952459953224</v>
+        <v>126.2328255885297</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J46" t="n">
         <v>74.67247646141476</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>480665.018395365</v>
+        <v>480665.0183953649</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>480665.0183953646</v>
+        <v>480665.0183953648</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>480665.0183953648</v>
+        <v>480665.018395365</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>480665.0183953646</v>
+        <v>480665.0183953648</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>480665.0183953645</v>
+        <v>480665.018395365</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>480665.018395365</v>
+        <v>480665.0183953648</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>480665.0183953646</v>
+        <v>480665.018395365</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>480665.0183953649</v>
+        <v>480665.0183953645</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>480665.0183953649</v>
+        <v>480665.018395365</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>267036.121330758</v>
+        <v>267036.1213307581</v>
       </c>
       <c r="F2" t="n">
-        <v>267036.121330758</v>
+        <v>267036.1213307581</v>
       </c>
       <c r="G2" t="n">
         <v>267036.121330758</v>
       </c>
       <c r="H2" t="n">
-        <v>267036.121330758</v>
+        <v>267036.1213307581</v>
       </c>
       <c r="I2" t="n">
         <v>267036.1213307581</v>
@@ -26340,22 +26340,22 @@
         <v>267036.1213307581</v>
       </c>
       <c r="K2" t="n">
+        <v>267036.1213307581</v>
+      </c>
+      <c r="L2" t="n">
         <v>267036.121330758</v>
       </c>
-      <c r="L2" t="n">
-        <v>267036.1213307583</v>
-      </c>
       <c r="M2" t="n">
+        <v>267036.121330758</v>
+      </c>
+      <c r="N2" t="n">
         <v>267036.1213307581</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>267036.121330758</v>
       </c>
-      <c r="O2" t="n">
-        <v>267036.1213307579</v>
-      </c>
       <c r="P2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252468</v>
+        <v>166940.1701252467</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244791</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>279125.0601321633</v>
       </c>
       <c r="C4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
         <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="F4" t="n">
         <v>305.9587030485383</v>
@@ -26435,10 +26435,10 @@
         <v>305.9587030485383</v>
       </c>
       <c r="H4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="I4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="J4" t="n">
         <v>305.9587030485383</v>
@@ -26478,19 +26478,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375757</v>
@@ -26499,7 +26499,7 @@
         <v>27864.35291375757</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104975.3457377043</v>
+        <v>104975.3457377045</v>
       </c>
       <c r="C6" t="n">
-        <v>185744.7772692521</v>
+        <v>185744.7772692522</v>
       </c>
       <c r="D6" t="n">
         <v>185744.7772692521</v>
       </c>
       <c r="E6" t="n">
-        <v>62081.04019532837</v>
+        <v>70941.17964936756</v>
       </c>
       <c r="F6" t="n">
-        <v>229021.2103205751</v>
+        <v>237881.3497746143</v>
       </c>
       <c r="G6" t="n">
-        <v>229021.2103205752</v>
+        <v>237881.3497746143</v>
       </c>
       <c r="H6" t="n">
-        <v>229021.2103205752</v>
+        <v>237881.3497746143</v>
       </c>
       <c r="I6" t="n">
-        <v>229021.2103205753</v>
+        <v>237881.3497746143</v>
       </c>
       <c r="J6" t="n">
-        <v>165961.267721469</v>
+        <v>174821.4071755081</v>
       </c>
       <c r="K6" t="n">
-        <v>229021.2103205751</v>
+        <v>237881.3497746143</v>
       </c>
       <c r="L6" t="n">
-        <v>229021.2103205754</v>
+        <v>237881.3497746143</v>
       </c>
       <c r="M6" t="n">
-        <v>187970.5124581273</v>
+        <v>196830.6519121664</v>
       </c>
       <c r="N6" t="n">
-        <v>229021.2103205752</v>
+        <v>237881.3497746143</v>
       </c>
       <c r="O6" t="n">
-        <v>229021.2103205751</v>
+        <v>237881.3497746142</v>
       </c>
       <c r="P6" t="n">
-        <v>229021.2103205753</v>
+        <v>237881.3497746142</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
         <v>146.571804419537</v>
@@ -26755,7 +26755,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
         <v>146.571804419537</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
         <v>405.7415719969023</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>34.72220046961743</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>301.5209461972391</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>156.6092913419999</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27472,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.008865280398368</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>201.9826062642881</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>237.3007884161221</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>150.1934751881589</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>246.9221439951795</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27712,7 +27712,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27751,16 +27751,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>54.73595870413448</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>14.16025306635143</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>230.1036515511437</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>366.3997666085763</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>192.1783936941173</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27943,13 +27943,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27982,13 +27982,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>147.6589445931411</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27997,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>48.0493431998008</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
         <v>103.4642265438474</v>
@@ -31776,16 +31776,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
@@ -31794,7 +31794,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>31.31816825232636</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326611</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,40 +31913,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M13" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L14" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438473</v>
@@ -32013,25 +32013,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R14" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T14" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,7 +32071,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427703</v>
@@ -32080,19 +32080,19 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9583558910941861</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>9.546351518406311</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32104,7 +32104,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32147,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K16" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q16" t="n">
         <v>22.13234246735009</v>
@@ -32183,7 +32183,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
@@ -32317,7 +32317,7 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -32326,13 +32326,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>47.12301935356061</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601701</v>
+        <v>0.9583558910935608</v>
       </c>
       <c r="Q18" t="n">
         <v>40.24363958326609</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044663</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>22.15554396550985</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409525</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253947</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>79.8816334086477</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>57.74090973668211</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M22" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118892</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I23" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J23" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M23" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N23" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T23" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,43 +32779,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H24" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I24" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253946</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864767</v>
+        <v>41.20199547436005</v>
       </c>
       <c r="N24" t="n">
-        <v>57.74090973668211</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>75.0101950410059</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601702</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.2436395832661</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H25" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J25" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L25" t="n">
         <v>39.29566048323129</v>
@@ -32882,7 +32882,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O25" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P25" t="n">
         <v>31.96707026225442</v>
@@ -32891,16 +32891,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R25" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,16 +33028,16 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K27" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>68.45318092253945</v>
+        <v>0.2528694664846114</v>
       </c>
       <c r="M27" t="n">
         <v>79.88163340864766</v>
       </c>
       <c r="N27" t="n">
-        <v>57.74090973668211</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K30" t="n">
-        <v>50.90881248409524</v>
+        <v>41.20199547436025</v>
       </c>
       <c r="L30" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>50.57133678046796</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33499,19 +33499,19 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J33" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L33" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>71.88361648860979</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>9.546351518406141</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33739,13 +33739,13 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L36" t="n">
         <v>68.45318092253945</v>
       </c>
       <c r="M36" t="n">
-        <v>71.88361648860956</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -33754,10 +33754,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.24363958326609</v>
+        <v>33.02214895534594</v>
       </c>
       <c r="R36" t="n">
         <v>19.57424965436761</v>
@@ -33973,19 +33973,19 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>5.124307834126171</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O39" t="n">
         <v>75.01019504100589</v>
@@ -34219,16 +34219,16 @@
         <v>68.45318092253945</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P42" t="n">
-        <v>59.12897300677395</v>
+        <v>14.57629779021417</v>
       </c>
       <c r="Q42" t="n">
         <v>40.24363958326609</v>
@@ -34389,7 +34389,7 @@
         <v>84.73249724737667</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.63057666134792</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R44" t="n">
         <v>37.01343159545223</v>
@@ -34447,28 +34447,28 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K45" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M45" t="n">
-        <v>29.22569039103684</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P45" t="n">
         <v>60.20229453601701</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R45" t="n">
         <v>19.57424965436761</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
         <v>179.0082576726433</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
@@ -35500,16 +35500,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>280.505837228775</v>
+        <v>379.3188305125466</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
         <v>66.88568574354744</v>
@@ -35582,10 +35582,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726432</v>
@@ -35658,7 +35658,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N14" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O14" t="n">
         <v>249.9811662707763</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>348.9590181513144</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>260.8124263506914</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,16 +35807,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M16" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O16" t="n">
         <v>61.94411832576036</v>
@@ -35965,22 +35965,22 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>395.1236816137808</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>185.4467171167005</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3391532330937</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>21.40895263925199</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>74.41604115545263</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714792</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K23" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L23" t="n">
         <v>274.8802469209098</v>
@@ -36378,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K24" t="n">
-        <v>112.5702101577125</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366293</v>
+        <v>364.7730253023416</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>244.6906557616239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L25" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M25" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N25" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P25" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223148</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>300.7391464461244</v>
+        <v>232.5388349900696</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>45.37675286849161</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>244.6906557616239</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223148</v>
+        <v>167.8257935125798</v>
       </c>
       <c r="L30" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>398.5719990406882</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L33" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>395.4546463165914</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>357.5470137786264</v>
       </c>
       <c r="O33" t="n">
         <v>251.2660748322851</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>395.4546463165912</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>103.1176626051735</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>237.4102733577112</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37642,7 +37642,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>243.6173342323809</v>
+        <v>199.0646590158211</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38034,10 +38034,10 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P44" t="n">
-        <v>175.2982096635898</v>
+        <v>175.2982096635897</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680312</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>352.7967202190184</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.6906557616239</v>
+        <v>30.98459604604517</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
